--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H2">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I2">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J2">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N2">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q2">
-        <v>1914.689971713156</v>
+        <v>4212.479576493908</v>
       </c>
       <c r="R2">
-        <v>17232.2097454184</v>
+        <v>37912.31618844517</v>
       </c>
       <c r="S2">
-        <v>0.3561806607041338</v>
+        <v>0.2724411185997667</v>
       </c>
       <c r="T2">
-        <v>0.3561806607041337</v>
+        <v>0.2724411185997667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H3">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I3">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J3">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q3">
-        <v>26.294506093471</v>
+        <v>17.015827183299</v>
       </c>
       <c r="R3">
-        <v>236.650554841239</v>
+        <v>153.142444649691</v>
       </c>
       <c r="S3">
-        <v>0.004891441795603897</v>
+        <v>0.001100494591733245</v>
       </c>
       <c r="T3">
-        <v>0.004891441795603896</v>
+        <v>0.001100494591733245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H4">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I4">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J4">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q4">
-        <v>49.33664710904601</v>
+        <v>31.926968242974</v>
       </c>
       <c r="R4">
-        <v>444.029823981414</v>
+        <v>287.342714186766</v>
       </c>
       <c r="S4">
-        <v>0.009177861598399447</v>
+        <v>0.002064869107058006</v>
       </c>
       <c r="T4">
-        <v>0.009177861598399445</v>
+        <v>0.002064869107058006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.091872</v>
       </c>
       <c r="I5">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J5">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N5">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q5">
-        <v>791.6904463997014</v>
+        <v>2691.576335425675</v>
       </c>
       <c r="R5">
-        <v>7125.214017597312</v>
+        <v>24224.18701883107</v>
       </c>
       <c r="S5">
-        <v>0.1472744049625393</v>
+        <v>0.1740770618122169</v>
       </c>
       <c r="T5">
-        <v>0.1472744049625393</v>
+        <v>0.174077061812217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.091872</v>
       </c>
       <c r="I6">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J6">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q6">
         <v>10.87231331157689</v>
@@ -818,10 +818,10 @@
         <v>97.85081980419201</v>
       </c>
       <c r="S6">
-        <v>0.002022524688545219</v>
+        <v>0.0007031642875853417</v>
       </c>
       <c r="T6">
-        <v>0.002022524688545219</v>
+        <v>0.000703164287585342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.091872</v>
       </c>
       <c r="I7">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J7">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q7">
         <v>20.39983117406578</v>
@@ -880,10 +880,10 @@
         <v>183.598480566592</v>
       </c>
       <c r="S7">
-        <v>0.003794883481491422</v>
+        <v>0.001319354248106444</v>
       </c>
       <c r="T7">
-        <v>0.003794883481491422</v>
+        <v>0.001319354248106444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>118.600751</v>
       </c>
       <c r="I8">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J8">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N8">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q8">
-        <v>2464.963693633377</v>
+        <v>8380.343574485205</v>
       </c>
       <c r="R8">
-        <v>22184.6732427004</v>
+        <v>75423.09217036683</v>
       </c>
       <c r="S8">
-        <v>0.4585454616574183</v>
+        <v>0.5419967352300865</v>
       </c>
       <c r="T8">
-        <v>0.4585454616574182</v>
+        <v>0.5419967352300865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>118.600751</v>
       </c>
       <c r="I9">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J9">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q9">
         <v>33.85143486411789</v>
@@ -1004,10 +1004,10 @@
         <v>304.662913777061</v>
       </c>
       <c r="S9">
-        <v>0.006297221280631838</v>
+        <v>0.002189333529840736</v>
       </c>
       <c r="T9">
-        <v>0.006297221280631838</v>
+        <v>0.002189333529840736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>118.600751</v>
       </c>
       <c r="I10">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J10">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q10">
         <v>63.51578881493177</v>
       </c>
       <c r="R10">
-        <v>571.6420993343861</v>
+        <v>571.642099334386</v>
       </c>
       <c r="S10">
-        <v>0.01181553983123689</v>
+        <v>0.004107868593606126</v>
       </c>
       <c r="T10">
-        <v>0.01181553983123689</v>
+        <v>0.004107868593606126</v>
       </c>
     </row>
   </sheetData>
